--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cdon</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H2">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I2">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J2">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.7840905815165</v>
+        <v>1.922246666666667</v>
       </c>
       <c r="N2">
-        <v>1.7840905815165</v>
+        <v>5.76674</v>
       </c>
       <c r="O2">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="P2">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="Q2">
-        <v>0.388930879177017</v>
+        <v>0.47813771362</v>
       </c>
       <c r="R2">
-        <v>0.388930879177017</v>
+        <v>4.30323942258</v>
       </c>
       <c r="S2">
-        <v>0.003563009784888561</v>
+        <v>0.004068744935823549</v>
       </c>
       <c r="T2">
-        <v>0.003563009784888561</v>
+        <v>0.004068744935823548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H3">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I3">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J3">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.5818257052274</v>
+        <v>21.84955866666667</v>
       </c>
       <c r="N3">
-        <v>21.5818257052274</v>
+        <v>65.548676</v>
       </c>
       <c r="O3">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="P3">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="Q3">
-        <v>4.704827508614706</v>
+        <v>5.434837373188</v>
       </c>
       <c r="R3">
-        <v>4.704827508614706</v>
+        <v>48.91353635869199</v>
       </c>
       <c r="S3">
-        <v>0.04310109417097078</v>
+        <v>0.04624811306300242</v>
       </c>
       <c r="T3">
-        <v>0.04310109417097078</v>
+        <v>0.04624811306300241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H4">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I4">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J4">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0980493489764014</v>
+        <v>0.102188</v>
       </c>
       <c r="N4">
-        <v>0.0980493489764014</v>
+        <v>0.306564</v>
       </c>
       <c r="O4">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="P4">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="Q4">
-        <v>0.02137471039598852</v>
+        <v>0.025418140932</v>
       </c>
       <c r="R4">
-        <v>0.02137471039598852</v>
+        <v>0.228763268388</v>
       </c>
       <c r="S4">
-        <v>0.0001958144913852517</v>
+        <v>0.0002162973746875722</v>
       </c>
       <c r="T4">
-        <v>0.0001958144913852517</v>
+        <v>0.0002162973746875722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H5">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I5">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J5">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3287815286179</v>
+        <v>21.01015966666667</v>
       </c>
       <c r="N5">
-        <v>20.3287815286179</v>
+        <v>63.030479</v>
       </c>
       <c r="O5">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="P5">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="Q5">
-        <v>4.431664487462426</v>
+        <v>5.226046105326999</v>
       </c>
       <c r="R5">
-        <v>4.431664487462426</v>
+        <v>47.03441494794299</v>
       </c>
       <c r="S5">
-        <v>0.0405986379008624</v>
+        <v>0.0444713897685317</v>
       </c>
       <c r="T5">
-        <v>0.0405986379008624</v>
+        <v>0.0444713897685317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H6">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I6">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J6">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.7840905815165</v>
+        <v>1.922246666666667</v>
       </c>
       <c r="N6">
-        <v>1.7840905815165</v>
+        <v>5.76674</v>
       </c>
       <c r="O6">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="P6">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="Q6">
-        <v>3.508314194892206</v>
+        <v>3.810318350595556</v>
       </c>
       <c r="R6">
-        <v>3.508314194892206</v>
+        <v>34.29286515536</v>
       </c>
       <c r="S6">
-        <v>0.03213979263182925</v>
+        <v>0.03242415950728034</v>
       </c>
       <c r="T6">
-        <v>0.03213979263182925</v>
+        <v>0.03242415950728034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H7">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I7">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J7">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.5818257052274</v>
+        <v>21.84955866666667</v>
       </c>
       <c r="N7">
-        <v>21.5818257052274</v>
+        <v>65.548676</v>
       </c>
       <c r="O7">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="P7">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="Q7">
-        <v>42.43945136966047</v>
+        <v>43.31066131298489</v>
       </c>
       <c r="R7">
-        <v>42.43945136966047</v>
+        <v>389.795951816864</v>
       </c>
       <c r="S7">
-        <v>0.3887893417343706</v>
+        <v>0.3685549766618641</v>
       </c>
       <c r="T7">
-        <v>0.3887893417343706</v>
+        <v>0.368554976661864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H8">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I8">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J8">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0980493489764014</v>
+        <v>0.102188</v>
       </c>
       <c r="N8">
-        <v>0.0980493489764014</v>
+        <v>0.306564</v>
       </c>
       <c r="O8">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="P8">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="Q8">
-        <v>0.1928085526472846</v>
+        <v>0.2025592336106667</v>
       </c>
       <c r="R8">
-        <v>0.1928085526472846</v>
+        <v>1.823033102496</v>
       </c>
       <c r="S8">
-        <v>0.001766326091531052</v>
+        <v>0.001723691381125192</v>
       </c>
       <c r="T8">
-        <v>0.001766326091531052</v>
+        <v>0.001723691381125191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H9">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I9">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J9">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3287815286179</v>
+        <v>21.01015966666667</v>
       </c>
       <c r="N9">
-        <v>20.3287815286179</v>
+        <v>63.030479</v>
       </c>
       <c r="O9">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="P9">
-        <v>0.4642042996830366</v>
+        <v>0.4680974968307114</v>
       </c>
       <c r="Q9">
-        <v>39.9754101841006</v>
+        <v>41.64678670800622</v>
       </c>
       <c r="R9">
-        <v>39.9754101841006</v>
+        <v>374.821080372056</v>
       </c>
       <c r="S9">
-        <v>0.3662161717328126</v>
+        <v>0.3543961241388173</v>
       </c>
       <c r="T9">
-        <v>0.3662161717328126</v>
+        <v>0.3543961241388173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.308160114955411</v>
+        <v>0.07456866666666666</v>
       </c>
       <c r="H10">
-        <v>0.308160114955411</v>
+        <v>0.223706</v>
       </c>
       <c r="I10">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="J10">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7840905815165</v>
+        <v>1.922246666666667</v>
       </c>
       <c r="N10">
-        <v>1.7840905815165</v>
+        <v>5.76674</v>
       </c>
       <c r="O10">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="P10">
-        <v>0.04073940771108647</v>
+        <v>0.04282684507083529</v>
       </c>
       <c r="Q10">
-        <v>0.5497855586909908</v>
+        <v>0.1433393709377778</v>
       </c>
       <c r="R10">
-        <v>0.5497855586909908</v>
+        <v>1.29005433844</v>
       </c>
       <c r="S10">
-        <v>0.005036605294368667</v>
+        <v>0.001219755988691417</v>
       </c>
       <c r="T10">
-        <v>0.005036605294368667</v>
+        <v>0.001219755988691417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.308160114955411</v>
+        <v>0.07456866666666666</v>
       </c>
       <c r="H11">
-        <v>0.308160114955411</v>
+        <v>0.223706</v>
       </c>
       <c r="I11">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="J11">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.5818257052274</v>
+        <v>21.84955866666667</v>
       </c>
       <c r="N11">
-        <v>21.5818257052274</v>
+        <v>65.548676</v>
       </c>
       <c r="O11">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="P11">
-        <v>0.4928173522487338</v>
+        <v>0.4867989525538483</v>
       </c>
       <c r="Q11">
-        <v>6.650657890270519</v>
+        <v>1.629292457028444</v>
       </c>
       <c r="R11">
-        <v>6.650657890270519</v>
+        <v>14.663632113256</v>
       </c>
       <c r="S11">
-        <v>0.06092691634339241</v>
+        <v>0.01386457341614037</v>
       </c>
       <c r="T11">
-        <v>0.06092691634339241</v>
+        <v>0.01386457341614037</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.308160114955411</v>
+        <v>0.07456866666666666</v>
       </c>
       <c r="H12">
-        <v>0.308160114955411</v>
+        <v>0.223706</v>
       </c>
       <c r="I12">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="J12">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0980493489764014</v>
+        <v>0.102188</v>
       </c>
       <c r="N12">
-        <v>0.0980493489764014</v>
+        <v>0.306564</v>
       </c>
       <c r="O12">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="P12">
-        <v>0.002238940357143112</v>
+        <v>0.002276705544605019</v>
       </c>
       <c r="Q12">
-        <v>0.03021489865187106</v>
+        <v>0.007620022909333332</v>
       </c>
       <c r="R12">
-        <v>0.03021489865187106</v>
+        <v>0.068580206184</v>
       </c>
       <c r="S12">
-        <v>0.0002767997742268094</v>
+        <v>6.484309591158876E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002767997742268094</v>
+        <v>6.484309591158876E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07456866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.223706</v>
+      </c>
+      <c r="I13">
+        <v>0.02848110774151</v>
+      </c>
+      <c r="J13">
+        <v>0.02848110774151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.01015966666667</v>
+      </c>
+      <c r="N13">
+        <v>63.030479</v>
+      </c>
+      <c r="O13">
+        <v>0.4680974968307114</v>
+      </c>
+      <c r="P13">
+        <v>0.4680974968307114</v>
+      </c>
+      <c r="Q13">
+        <v>1.566699592797111</v>
+      </c>
+      <c r="R13">
+        <v>14.100296335174</v>
+      </c>
+      <c r="S13">
+        <v>0.01333193524076663</v>
+      </c>
+      <c r="T13">
+        <v>0.01333193524076663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.312651</v>
+      </c>
+      <c r="H14">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J14">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.922246666666667</v>
+      </c>
+      <c r="N14">
+        <v>5.76674</v>
+      </c>
+      <c r="O14">
+        <v>0.04282684507083529</v>
+      </c>
+      <c r="P14">
+        <v>0.04282684507083529</v>
+      </c>
+      <c r="Q14">
+        <v>0.60099234258</v>
+      </c>
+      <c r="R14">
+        <v>5.40893108322</v>
+      </c>
+      <c r="S14">
+        <v>0.005114184639039991</v>
+      </c>
+      <c r="T14">
+        <v>0.005114184639039991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.312651</v>
+      </c>
+      <c r="H15">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J15">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.84955866666667</v>
+      </c>
+      <c r="N15">
+        <v>65.548676</v>
+      </c>
+      <c r="O15">
+        <v>0.4867989525538483</v>
+      </c>
+      <c r="P15">
+        <v>0.4867989525538483</v>
+      </c>
+      <c r="Q15">
+        <v>6.831286366691999</v>
+      </c>
+      <c r="R15">
+        <v>61.481577300228</v>
+      </c>
+      <c r="S15">
+        <v>0.05813128941284145</v>
+      </c>
+      <c r="T15">
+        <v>0.05813128941284144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.308160114955411</v>
-      </c>
-      <c r="H13">
-        <v>0.308160114955411</v>
-      </c>
-      <c r="I13">
-        <v>0.1236298114613495</v>
-      </c>
-      <c r="J13">
-        <v>0.1236298114613495</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.3287815286179</v>
-      </c>
-      <c r="N13">
-        <v>20.3287815286179</v>
-      </c>
-      <c r="O13">
-        <v>0.4642042996830366</v>
-      </c>
-      <c r="P13">
-        <v>0.4642042996830366</v>
-      </c>
-      <c r="Q13">
-        <v>6.264519652762328</v>
-      </c>
-      <c r="R13">
-        <v>6.264519652762328</v>
-      </c>
-      <c r="S13">
-        <v>0.05738949004936157</v>
-      </c>
-      <c r="T13">
-        <v>0.05738949004936157</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.312651</v>
+      </c>
+      <c r="H16">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J16">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.102188</v>
+      </c>
+      <c r="N16">
+        <v>0.306564</v>
+      </c>
+      <c r="O16">
+        <v>0.002276705544605019</v>
+      </c>
+      <c r="P16">
+        <v>0.002276705544605019</v>
+      </c>
+      <c r="Q16">
+        <v>0.03194918038799999</v>
+      </c>
+      <c r="R16">
+        <v>0.287542623492</v>
+      </c>
+      <c r="S16">
+        <v>0.0002718736928806666</v>
+      </c>
+      <c r="T16">
+        <v>0.0002718736928806666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.312651</v>
+      </c>
+      <c r="H17">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J17">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.01015966666667</v>
+      </c>
+      <c r="N17">
+        <v>63.030479</v>
+      </c>
+      <c r="O17">
+        <v>0.4680974968307114</v>
+      </c>
+      <c r="P17">
+        <v>0.4680974968307114</v>
+      </c>
+      <c r="Q17">
+        <v>6.568847429942999</v>
+      </c>
+      <c r="R17">
+        <v>59.11962686948699</v>
+      </c>
+      <c r="S17">
+        <v>0.05589804768259583</v>
+      </c>
+      <c r="T17">
+        <v>0.05589804768259583</v>
       </c>
     </row>
   </sheetData>
